--- a/tai_lieu/Test-cases.xlsx
+++ b/tai_lieu/Test-cases.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tai lieu\Ky thuat lap trinh huong doi tuong\Bao cao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tai_Lieu\KTLT-HDT\KTLT-HDT\tai_lieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C90826-7120-4194-9F68-E62D41A61243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF326928-C924-4E62-9F37-709B75B666DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="17" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -77,9 +64,6 @@
     <t>Trang chủ</t>
   </si>
   <si>
-    <t>10 mặt hàng xem nhiều nhất</t>
-  </si>
-  <si>
     <t>Giao diện</t>
   </si>
   <si>
@@ -92,15 +76,9 @@
     <t>Chuyển về trang web trang chủ</t>
   </si>
   <si>
-    <t>Hiển thị tryện đề cử</t>
-  </si>
-  <si>
     <t>Hiển thị danh sách truyện</t>
   </si>
   <si>
-    <t>Hiển thị thông tin trang web</t>
-  </si>
-  <si>
     <t>Danh sách truyện đề cử</t>
   </si>
   <si>
@@ -114,9 +92,6 @@
   </si>
   <si>
     <t>Tổng hợp lượt xem</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách truyện đọc nhiều nhất</t>
   </si>
   <si>
     <t>10 truyện xem nhiều nhất</t>
@@ -422,6 +397,19 @@
   <si>
     <t>(Xuyên không, chuyển qua
  thế giới khác)</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách truyện đọc 
+nhiều nhất</t>
+  </si>
+  <si>
+    <t>Hiển thị bình luận cộng đồng</t>
+  </si>
+  <si>
+    <t>Hiển thị bình luận mới nhất</t>
+  </si>
+  <si>
+    <t>Hiển thị truyện đề cử</t>
   </si>
 </sst>
 </file>
@@ -533,7 +521,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -578,6 +566,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,7 +1033,7 @@
   <dimension ref="B2:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1089,13 +1078,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -1104,13 +1093,13 @@
         <v>1.2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1119,41 +1108,45 @@
         <v>1.3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>1.4</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>1.5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
+      <c r="E8" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -1189,7 +1182,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -1207,7 +1200,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="11"/>
     </row>
@@ -1216,13 +1209,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1231,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1255,16 +1248,16 @@
         <v>3.2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1272,16 +1265,16 @@
         <v>3.3</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,13 +1282,13 @@
         <v>3.4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -1304,13 +1297,13 @@
         <v>3.5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -1319,13 +1312,13 @@
         <v>3.6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -1334,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1358,13 +1351,13 @@
         <v>4.2</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -1373,13 +1366,13 @@
         <v>4.3</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -1388,7 +1381,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1399,11 +1392,11 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -1412,11 +1405,11 @@
         <v>5.2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -1425,11 +1418,11 @@
         <v>5.3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -1438,11 +1431,11 @@
         <v>5.4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F29" s="3"/>
     </row>
@@ -1451,13 +1444,13 @@
         <v>5.5</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -1466,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1477,13 +1470,13 @@
         <v>6.1</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F32" s="3"/>
     </row>
@@ -1492,11 +1485,11 @@
         <v>6.2</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F33" s="3"/>
     </row>
@@ -1505,11 +1498,11 @@
         <v>6.3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F34" s="3"/>
     </row>
@@ -1518,11 +1511,11 @@
         <v>6.4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -1531,11 +1524,11 @@
         <v>6.5</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F36" s="3"/>
     </row>
@@ -1544,11 +1537,11 @@
         <v>6.6</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -1557,13 +1550,13 @@
         <v>6.7</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F38" s="3"/>
     </row>
@@ -1572,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1583,13 +1576,13 @@
         <v>7.1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F40" s="3"/>
     </row>
@@ -1598,13 +1591,13 @@
         <v>7.2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F41" s="3"/>
     </row>
@@ -1613,13 +1606,13 @@
         <v>7.3</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F42" s="3"/>
     </row>
@@ -1628,7 +1621,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -1639,13 +1632,13 @@
         <v>8.1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F44" s="3"/>
     </row>
@@ -1654,13 +1647,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F45" s="3"/>
     </row>
@@ -1669,13 +1662,13 @@
         <v>8.4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F46" s="3"/>
     </row>
@@ -1684,13 +1677,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F47" s="3"/>
     </row>
@@ -1699,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -1713,7 +1706,7 @@
         <v>7</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F49" s="3"/>
     </row>
@@ -1722,13 +1715,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F50" s="3"/>
     </row>
@@ -1737,13 +1730,13 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F51" s="3"/>
     </row>
@@ -1752,13 +1745,13 @@
         <v>9.4</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F52" s="3"/>
     </row>
@@ -1767,7 +1760,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="7"/>
@@ -1781,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F54" s="3"/>
     </row>
@@ -1790,13 +1783,13 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F55" s="3"/>
     </row>
@@ -1805,16 +1798,16 @@
         <v>10.3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1822,13 +1815,13 @@
         <v>10.4</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F57" s="3"/>
     </row>
@@ -1837,7 +1830,7 @@
         <v>11</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="7"/>
@@ -1848,13 +1841,13 @@
         <v>11.1</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F59" s="3"/>
     </row>
@@ -1863,11 +1856,11 @@
         <v>11.2</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F60" s="3"/>
     </row>
@@ -1876,16 +1869,16 @@
         <v>11.3</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E61" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1893,13 +1886,13 @@
         <v>11.4</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F62" s="3"/>
     </row>
@@ -1908,7 +1901,7 @@
         <v>12</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -1922,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F64" s="3"/>
     </row>
@@ -1931,13 +1924,13 @@
         <v>12.2</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F65" s="3"/>
     </row>
@@ -1946,13 +1939,13 @@
         <v>12.3</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F66" s="3"/>
     </row>
@@ -1961,13 +1954,13 @@
         <v>12.4</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F67" s="3"/>
     </row>
@@ -1976,11 +1969,11 @@
         <v>12.5</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F68" s="3"/>
     </row>
@@ -1989,11 +1982,11 @@
         <v>12.6</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F69" s="3"/>
     </row>
@@ -2002,13 +1995,13 @@
         <v>12.7</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F70" s="3"/>
     </row>
@@ -2017,7 +2010,7 @@
         <v>13</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="7"/>
@@ -2028,13 +2021,13 @@
         <v>13.1</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F72" s="3"/>
     </row>
@@ -2043,11 +2036,11 @@
         <v>13.2</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F73" s="3"/>
     </row>
@@ -2056,13 +2049,13 @@
         <v>13.3</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F74" s="3"/>
     </row>
@@ -2071,7 +2064,7 @@
         <v>14</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -2085,7 +2078,7 @@
         <v>7</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F76" s="3"/>
     </row>
@@ -2094,13 +2087,13 @@
         <v>14.2</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F77" s="3"/>
     </row>
@@ -2109,13 +2102,13 @@
         <v>14.3</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F78" s="3"/>
     </row>
@@ -2124,13 +2117,13 @@
         <v>14.4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F79" s="3"/>
     </row>
@@ -2139,13 +2132,13 @@
         <v>14.5</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F80" s="3"/>
     </row>
@@ -2154,7 +2147,7 @@
         <v>15</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="7"/>
@@ -2165,13 +2158,13 @@
         <v>15.1</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F82" s="3"/>
     </row>
@@ -2180,11 +2173,11 @@
         <v>15.2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F83" s="3"/>
     </row>
@@ -2193,13 +2186,13 @@
         <v>15.3</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F84" s="3"/>
     </row>
